--- a/cards/account/account.xlsx
+++ b/cards/account/account.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX33"/>
+  <dimension ref="A1:CT33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,583 +440,557 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_ab_id</t>
+          <t>acc_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_emitted_at</t>
+          <t>acc_iban</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>acc_code</t>
+          <t>acc_numb</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>acc_iban</t>
+          <t>acc_type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>acc_numb</t>
+          <t>acc_aas_code</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>acc_type</t>
+          <t>acc_apr_code</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>acc_aas_code</t>
+          <t>acc_asr_code</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>acc_apr_code</t>
+          <t>acc_ast_code</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>acc_asr_code</t>
+          <t>acc_aty_code</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>acc_ast_code</t>
+          <t>acc_ban_code</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>acc_aty_code</t>
+          <t>acc_bat_code</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>acc_ban_code</t>
+          <t>acc_bra_code</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>acc_bat_code</t>
+          <t>acc_brea_age</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>acc_bra_code</t>
+          <t>acc_cus_code</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>acc_brea_age</t>
+          <t>acc_dpr_code</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>acc_cus_code</t>
+          <t>acc_gty_code</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>acc_dpr_code</t>
+          <t>acc_gty_memo</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>acc_gty_code</t>
+          <t>acc_iaf_aply</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>acc_gty_memo</t>
+          <t>acc_ilf_code</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>acc_iaf_aply</t>
+          <t>acc_mer_code</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>acc_ilf_code</t>
+          <t>acc_mini_due</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>acc_mer_code</t>
+          <t>acc_numb_mxp</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>acc_mini_due</t>
+          <t>acc_ppr_code</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>acc_numb_mxp</t>
+          <t>acc_sar_code</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>acc_ppr_code</t>
+          <t>acc_sfe_code</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>acc_sar_code</t>
+          <t>acc_vca_code</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>acc_sfe_code</t>
+          <t>acc_auth_cumu</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>acc_vca_code</t>
+          <t>acc_auto_relo</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>acc_auth_cumu</t>
+          <t>acc_avai_amou</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>acc_auto_relo</t>
+          <t>acc_clos_date</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>acc_avai_amou</t>
+          <t>acc_crea_date</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>acc_clos_date</t>
+          <t>acc_cred_limi</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>acc_crea_date</t>
+          <t>acc_curr_code</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>acc_cred_limi</t>
+          <t>acc_effe_date</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>acc_curr_code</t>
+          <t>acc_fixe_amou</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>acc_effe_date</t>
+          <t>acc_fore_avai</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>acc_fixe_amou</t>
+          <t>acc_guar_valu</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>acc_fore_avai</t>
+          <t>acc_levy_date</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>acc_guar_valu</t>
+          <t>acc_paym_mode</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>acc_levy_date</t>
+          <t>acc_pend_amou</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>acc_paym_mode</t>
+          <t>acc_relo_amou</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>acc_pend_amou</t>
+          <t>acc_stat_date</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_amou</t>
+          <t>acc_stat_fees</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>acc_stat_date</t>
+          <t>acc_unpa_stat</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>acc_stat_fees</t>
+          <t>acc_used_cumu</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>acc_unpa_stat</t>
+          <t>acc_on_line_paym</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>acc_used_cumu</t>
+          <t>acc_previous_ast</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>acc_on_line_paym</t>
+          <t>acc_due_bala_amou</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>acc_previous_ast</t>
+          <t>acc_emi_pend_cumu</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>acc_due_bala_amou</t>
+          <t>acc_gty_expi_date</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>acc_emi_pend_cumu</t>
+          <t>acc_gty_refe_numb</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>acc_gty_expi_date</t>
+          <t>acc_init_pmo_code</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>acc_gty_refe_numb</t>
+          <t>acc_relo_per_code</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>acc_init_pmo_code</t>
+          <t>acc_relo_pmo_code</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_per_code</t>
+          <t>acc_relo_prf_code</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_pmo_code</t>
+          <t>acc_admi_stat_date</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_prf_code</t>
+          <t>acc_admi_stat_reas</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>acc_admi_stat_date</t>
+          <t>acc_auth_cumu_cash</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>acc_admi_stat_reas</t>
+          <t>acc_coun_unpa_term</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>acc_auth_cumu_cash</t>
+          <t>acc_curr_open_bala</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>acc_coun_unpa_term</t>
+          <t>acc_dire_debi_mode</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>acc_curr_open_bala</t>
+          <t>acc_dist_cred_limi</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>acc_dire_debi_mode</t>
+          <t>acc_dist_depo_amou</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>acc_dist_cred_limi</t>
+          <t>acc_fixe_peri_code</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>acc_dist_depo_amou</t>
+          <t>acc_init_load_amou</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>acc_fixe_peri_code</t>
+          <t>acc_init_tota_amou</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>acc_init_load_amou</t>
+          <t>acc_last_cycl_date</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>acc_init_tota_amou</t>
+          <t>acc_last_tran_date</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>acc_last_cycl_date</t>
+          <t>acc_late_paym_stat</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>acc_last_tran_date</t>
+          <t>acc_mana_user_code</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>acc_late_paym_stat</t>
+          <t>acc_outs_bala_amou</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>acc_mana_user_code</t>
+          <t>acc_over_line_amou</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>acc_outs_bala_amou</t>
+          <t>acc_over_line_stat</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>acc_over_line_amou</t>
+          <t>acc_perc_over_limi</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>acc_over_line_stat</t>
+          <t>acc_proc_fixe_date</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>acc_perc_over_limi</t>
+          <t>acc_relo_acco_numb</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>acc_proc_fixe_date</t>
+          <t>acc_unpa_stat_date</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_acco_numb</t>
+          <t>acc_used_cumu_test</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>acc_unpa_stat_date</t>
+          <t>acc_paper_stat_flag</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>acc_used_cumu_test</t>
+          <t>acc_auto_paym_period</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>acc_paper_stat_flag</t>
+          <t>acc_merchant_ewallet</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>acc_auto_paym_period</t>
+          <t>acc_relo_per_end_date</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>acc_merchant_ewallet</t>
+          <t>acc_inac_acco_fees_max</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_per_end_date</t>
+          <t>acc_inac_acco_fees_min</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>acc_inac_acco_fees_max</t>
+          <t>acc_inac_fee_proc_date</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>acc_inac_acco_fees_min</t>
+          <t>acc_last_cycl_due_bala</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>acc_inac_fee_proc_date</t>
+          <t>acc_misc_peri_fee_date</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>acc_last_cycl_due_bala</t>
+          <t>acc_relo_max_relo_valu</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>acc_misc_peri_fee_date</t>
+          <t>acc_relo_min_relo_valu</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_max_relo_valu</t>
+          <t>acc_relo_per_star_date</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_min_relo_valu</t>
+          <t>acc_cred_limi_effe_date</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>acc_relo_per_star_date</t>
+          <t>acc_inac_acco_fees_fixe</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>acc_cred_limi_effe_date</t>
+          <t>acc_inac_acco_fees_mont</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>acc_inac_acco_fees_fixe</t>
+          <t>acc_inac_acco_fees_rate</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>acc_inac_acco_fees_mont</t>
+          <t>acc_late_paym_stat_date</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>acc_inac_acco_fees_rate</t>
+          <t>acc_over_line_stat_date</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>acc_late_paym_stat_date</t>
+          <t>acc_relo_max_limi_on_acco</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>acc_over_line_stat_date</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>acc_relo_max_limi_on_acco</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_additional_properties</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>source_file_path</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>9e865e41-24d1-44e0-ac72-ecab8698d888</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="n">
         <v>652590</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
         <is>
           <t>1054150036463002</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>5364</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>5364</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>2294761</v>
+      </c>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
-        <v>2294761</v>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>M000002294761</t>
+        </is>
       </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>M000002294761</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>2023-03-23T23:43:17</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>2023-03-23T23:43:17</t>
-        </is>
+      <c r="AG2" t="n">
+        <v>150</v>
       </c>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="n">
-        <v>150</v>
-      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -1079,107 +1053,93 @@
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="inlineStr"/>
-      <c r="CT2" t="inlineStr"/>
-      <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX2" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT2" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3a0e53ce-a936-4bee-acd8-ed9ded73cc3b</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="n">
         <v>685879</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>2735750771966001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15601</v>
-      </c>
+        <v>5406</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>5406</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
         <v>1189793</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="O3" t="n">
         <v>22541</v>
       </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1007000000237151</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1007000000237151</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2020-03-12T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>150</v>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2020-03-12T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -1188,16 +1148,16 @@
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
+      <c r="AS3" t="n">
+        <v>5000</v>
+      </c>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AV3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
@@ -1206,41 +1166,41 @@
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
       <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB3" t="inlineStr"/>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
@@ -1250,118 +1210,104 @@
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
       <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>2020-03-12T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>2020-03-12T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO3" t="inlineStr"/>
       <c r="CP3" t="inlineStr"/>
       <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
       <c r="CS3" t="inlineStr"/>
-      <c r="CT3" t="inlineStr"/>
-      <c r="CU3" t="inlineStr"/>
-      <c r="CV3" t="inlineStr"/>
-      <c r="CW3" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX3" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT3" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6e7ebecb-b7e5-492c-8583-608022cdab9e</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4" t="n">
         <v>798551</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>2385750960980001</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15601</v>
-      </c>
+        <v>5419</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>5419</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
         <v>1448846</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="O4" t="n">
         <v>22541</v>
       </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1007000000348983</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>1007000000348983</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>2020-10-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>150</v>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2020-10-11T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
@@ -1370,16 +1316,16 @@
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AS4" t="n">
+        <v>2500</v>
+      </c>
       <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AV4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
@@ -1388,41 +1334,41 @@
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr"/>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
       <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
       <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
-      <c r="CA4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB4" t="inlineStr"/>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="inlineStr"/>
@@ -1432,118 +1378,104 @@
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>2020-10-11T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN4" t="inlineStr"/>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>2020-10-11T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="inlineStr"/>
       <c r="CQ4" t="inlineStr"/>
       <c r="CR4" t="inlineStr"/>
       <c r="CS4" t="inlineStr"/>
-      <c r="CT4" t="inlineStr"/>
-      <c r="CU4" t="inlineStr"/>
-      <c r="CV4" t="inlineStr"/>
-      <c r="CW4" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX4" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT4" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ea96a61f-569b-4de0-9841-178d831b23ad</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5" t="n">
         <v>798601</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0265751700535001</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15601</v>
-      </c>
+        <v>5273</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>5273</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
         <v>1550076</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="O5" t="n">
         <v>22541</v>
       </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1007000000349032</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1007000000349032</t>
-        </is>
-      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>2022-02-15T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>150</v>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>2022-02-15T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
@@ -1552,16 +1484,16 @@
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AS5" t="n">
+        <v>5000</v>
+      </c>
       <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AV5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
@@ -1570,41 +1502,41 @@
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
       <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
       <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr"/>
       <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB5" t="inlineStr"/>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr"/>
       <c r="CF5" t="inlineStr"/>
@@ -1614,118 +1546,104 @@
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>2022-02-15T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN5" t="inlineStr"/>
-      <c r="CO5" t="inlineStr">
-        <is>
-          <t>2022-02-15T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO5" t="inlineStr"/>
       <c r="CP5" t="inlineStr"/>
       <c r="CQ5" t="inlineStr"/>
       <c r="CR5" t="inlineStr"/>
       <c r="CS5" t="inlineStr"/>
-      <c r="CT5" t="inlineStr"/>
-      <c r="CU5" t="inlineStr"/>
-      <c r="CV5" t="inlineStr"/>
-      <c r="CW5" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX5" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT5" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>c2f9b2a5-0883-46e4-b17f-f72b13456713</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="n">
         <v>809273</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0384151009724001</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>15601</v>
-      </c>
+        <v>5227</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>5227</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
         <v>1431295</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="O6" t="n">
         <v>22541</v>
       </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1007000000359413</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>1007000000359413</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>2020-12-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>150</v>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2020-12-24T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
@@ -1734,16 +1652,16 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
+      <c r="AS6" t="n">
+        <v>2500</v>
+      </c>
       <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AV6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
@@ -1752,41 +1670,41 @@
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
       <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
       <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB6" t="inlineStr"/>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr"/>
@@ -1796,118 +1714,104 @@
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
-      <c r="CM6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>2020-12-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>2020-12-24T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO6" t="inlineStr"/>
       <c r="CP6" t="inlineStr"/>
       <c r="CQ6" t="inlineStr"/>
       <c r="CR6" t="inlineStr"/>
       <c r="CS6" t="inlineStr"/>
-      <c r="CT6" t="inlineStr"/>
-      <c r="CU6" t="inlineStr"/>
-      <c r="CV6" t="inlineStr"/>
-      <c r="CW6" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX6" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT6" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0511428b-fa09-478e-8970-84d3a293eae7</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="n">
         <v>873023</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0265751651971001</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>15601</v>
-      </c>
+        <v>5273</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>5273</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
         <v>1814727</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="O7" t="n">
         <v>22541</v>
       </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1007000000422518</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1007000000422518</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2022-05-12T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>150</v>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2022-05-12T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
@@ -1916,16 +1820,16 @@
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
+      <c r="AS7" t="n">
+        <v>10269.99</v>
+      </c>
       <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="n">
-        <v>10269.99</v>
-      </c>
-      <c r="AV7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
@@ -1934,45 +1838,45 @@
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>2023-09-26T19:29:05</t>
+        </is>
+      </c>
       <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr">
-        <is>
-          <t>2023-09-26T19:29:05</t>
-        </is>
-      </c>
-      <c r="BS7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
       <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
       <c r="BX7" t="inlineStr"/>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB7" t="inlineStr"/>
-      <c r="CC7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="inlineStr"/>
@@ -1982,118 +1886,104 @@
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>2022-05-12T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr">
-        <is>
-          <t>2022-05-12T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO7" t="inlineStr"/>
       <c r="CP7" t="inlineStr"/>
       <c r="CQ7" t="inlineStr"/>
       <c r="CR7" t="inlineStr"/>
       <c r="CS7" t="inlineStr"/>
-      <c r="CT7" t="inlineStr"/>
-      <c r="CU7" t="inlineStr"/>
-      <c r="CV7" t="inlineStr"/>
-      <c r="CW7" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX7" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT7" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>f81606ec-5b99-4cf9-a477-a0071035b135</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" t="n">
         <v>885145</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
         <is>
           <t>4756430440524001</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>15601</v>
-      </c>
+        <v>5482</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>5482</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
         <v>1447942</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="O8" t="n">
         <v>22541</v>
       </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1007000000434539</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>1007000000434539</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>150</v>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
@@ -2102,16 +1992,16 @@
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
       <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
@@ -2120,41 +2010,41 @@
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
       <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
       <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="inlineStr"/>
@@ -2164,118 +2054,104 @@
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>2016-07-01T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr">
-        <is>
-          <t>2016-07-01T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO8" t="inlineStr"/>
       <c r="CP8" t="inlineStr"/>
       <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr"/>
       <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr"/>
-      <c r="CV8" t="inlineStr"/>
-      <c r="CW8" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX8" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT8" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>9424e9e8-d047-4137-b6ee-ed42b553b115</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9" t="n">
         <v>887451</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>2655751566002001</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>15601</v>
-      </c>
+        <v>5387</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>5387</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
         <v>1448270</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="O9" t="n">
         <v>22541</v>
       </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1007000000436826</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>1007000000436826</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>2021-12-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>150</v>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>2021-12-23T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
@@ -2284,16 +2160,16 @@
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
+      <c r="AS9" t="n">
+        <v>2500</v>
+      </c>
       <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AV9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
@@ -2302,41 +2178,41 @@
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
       <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
       <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB9" t="inlineStr"/>
-      <c r="CC9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="inlineStr"/>
@@ -2346,118 +2222,104 @@
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>2021-12-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr">
-        <is>
-          <t>2021-12-23T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO9" t="inlineStr"/>
       <c r="CP9" t="inlineStr"/>
       <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr"/>
       <c r="CS9" t="inlineStr"/>
-      <c r="CT9" t="inlineStr"/>
-      <c r="CU9" t="inlineStr"/>
-      <c r="CV9" t="inlineStr"/>
-      <c r="CW9" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX9" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT9" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>c6e2017f-4c24-47ba-9cb5-b7dd74598445</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="A10" t="n">
         <v>919185</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>5214291857524001</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>15601</v>
-      </c>
+        <v>5482</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>5482</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
         <v>1251895</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="O10" t="n">
         <v>22541</v>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1007000000468280</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>1007000000468280</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>2018-10-04T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>150</v>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2018-10-04T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
@@ -2466,16 +2328,16 @@
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
       <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
@@ -2484,41 +2346,41 @@
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
       <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
       <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="inlineStr"/>
       <c r="BX10" t="inlineStr"/>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB10" t="inlineStr"/>
-      <c r="CC10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="inlineStr"/>
@@ -2528,118 +2390,104 @@
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>2018-10-04T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr">
-        <is>
-          <t>2018-10-04T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO10" t="inlineStr"/>
       <c r="CP10" t="inlineStr"/>
       <c r="CQ10" t="inlineStr"/>
       <c r="CR10" t="inlineStr"/>
       <c r="CS10" t="inlineStr"/>
-      <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
-      <c r="CV10" t="inlineStr"/>
-      <c r="CW10" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX10" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT10" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>95760d12-21ca-4749-b50a-5583a6cb4d13</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="A11" t="n">
         <v>979625</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
         <is>
           <t>1554483718524001</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>15601</v>
-      </c>
+        <v>5482</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>5482</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
         <v>1291988</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="O11" t="n">
         <v>22541</v>
       </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1007000000528145</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>1007000000528145</t>
-        </is>
-      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2018-07-29T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>150</v>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2018-07-29T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
@@ -2648,16 +2496,16 @@
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
       <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
       <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
@@ -2666,41 +2514,41 @@
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
       <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
       <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
       <c r="BW11" t="inlineStr"/>
       <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="inlineStr"/>
@@ -2710,118 +2558,104 @@
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>2018-07-29T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr">
-        <is>
-          <t>2018-07-29T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO11" t="inlineStr"/>
       <c r="CP11" t="inlineStr"/>
       <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr"/>
       <c r="CS11" t="inlineStr"/>
-      <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
-      <c r="CV11" t="inlineStr"/>
-      <c r="CW11" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX11" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT11" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4d8efa96-8c02-4146-a00e-450fbf4a5b47</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="A12" t="n">
         <v>1020535</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
         <is>
           <t>R802018565452401</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>15601</v>
-      </c>
+        <v>5150</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>5150</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
         <v>1789419</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="O12" t="n">
         <v>22541</v>
       </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1007000000568687</t>
+        </is>
+      </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>1007000000568687</t>
-        </is>
-      </c>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>2019-04-30T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>150</v>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>2019-04-30T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
@@ -2830,16 +2664,16 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+      <c r="AS12" t="n">
+        <v>42500</v>
+      </c>
       <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="n">
-        <v>42500</v>
-      </c>
-      <c r="AV12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
       <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
@@ -2848,45 +2682,45 @@
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
       <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>2023-03-30T13:21:32</t>
+        </is>
+      </c>
       <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr">
-        <is>
-          <t>2023-03-30T13:21:32</t>
-        </is>
-      </c>
-      <c r="BS12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
       <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="inlineStr"/>
       <c r="BX12" t="inlineStr"/>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB12" t="inlineStr"/>
-      <c r="CC12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="inlineStr"/>
@@ -2896,118 +2730,104 @@
       <c r="CJ12" t="inlineStr"/>
       <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>2019-04-30T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN12" t="inlineStr"/>
-      <c r="CO12" t="inlineStr">
-        <is>
-          <t>2019-04-30T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO12" t="inlineStr"/>
       <c r="CP12" t="inlineStr"/>
       <c r="CQ12" t="inlineStr"/>
       <c r="CR12" t="inlineStr"/>
       <c r="CS12" t="inlineStr"/>
-      <c r="CT12" t="inlineStr"/>
-      <c r="CU12" t="inlineStr"/>
-      <c r="CV12" t="inlineStr"/>
-      <c r="CW12" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX12" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT12" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3c8d581f-e0cf-44b0-89b8-c3fc0d58d11d</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="A13" t="n">
         <v>1096165</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>4756430440524001</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>15601</v>
-      </c>
+        <v>5482</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>5482</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
         <v>1282439</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="O13" t="n">
         <v>22541</v>
       </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1007000000643882</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>1007000000643882</t>
-        </is>
-      </c>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>150</v>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
@@ -3016,16 +2836,16 @@
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
       <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
       <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
@@ -3034,41 +2854,41 @@
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
       <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
       <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="inlineStr"/>
       <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr"/>
       <c r="CF13" t="inlineStr"/>
@@ -3078,118 +2898,104 @@
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>2016-07-01T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr">
-        <is>
-          <t>2016-07-01T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO13" t="inlineStr"/>
       <c r="CP13" t="inlineStr"/>
       <c r="CQ13" t="inlineStr"/>
       <c r="CR13" t="inlineStr"/>
       <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
-      <c r="CV13" t="inlineStr"/>
-      <c r="CW13" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX13" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT13" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>c541f07e-3786-4d36-8264-431ce557eb1e</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="A14" t="n">
         <v>1249841</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
         <is>
           <t>3187974929752401</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>15601</v>
-      </c>
+        <v>5289</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>5289</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
         <v>1711130</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="O14" t="n">
         <v>22541</v>
       </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1007000000795316</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>1007000000795316</t>
-        </is>
-      </c>
+      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>2020-01-22T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>150</v>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>2020-01-22T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
@@ -3198,16 +3004,16 @@
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+      <c r="AS14" t="n">
+        <v>5000</v>
+      </c>
       <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AV14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
       <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
@@ -3216,41 +3022,41 @@
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
       <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
       <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="inlineStr"/>
       <c r="BX14" t="inlineStr"/>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB14" t="inlineStr"/>
-      <c r="CC14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr"/>
       <c r="CF14" t="inlineStr"/>
@@ -3260,118 +3066,104 @@
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>2020-01-22T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr">
-        <is>
-          <t>2020-01-22T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
       <c r="CR14" t="inlineStr"/>
       <c r="CS14" t="inlineStr"/>
-      <c r="CT14" t="inlineStr"/>
-      <c r="CU14" t="inlineStr"/>
-      <c r="CV14" t="inlineStr"/>
-      <c r="CW14" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX14" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT14" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>634411a5-607d-491f-bc59-5a8cd88dae86</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="A15" t="n">
         <v>1320952</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
         <is>
           <t>0224151007045001</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>15601</v>
-      </c>
+        <v>5186</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>5186</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
         <v>1559410</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="O15" t="n">
         <v>22541</v>
       </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1007000000855692</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>1007000000855692</t>
-        </is>
-      </c>
+      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>150</v>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
@@ -3380,16 +3172,16 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
       <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
       <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
@@ -3398,41 +3190,41 @@
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
       <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
       <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="inlineStr"/>
       <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB15" t="inlineStr"/>
-      <c r="CC15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
       <c r="CF15" t="inlineStr"/>
@@ -3442,118 +3234,104 @@
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>2020-12-02T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr">
-        <is>
-          <t>2020-12-02T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO15" t="inlineStr"/>
       <c r="CP15" t="inlineStr"/>
       <c r="CQ15" t="inlineStr"/>
       <c r="CR15" t="inlineStr"/>
       <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr"/>
-      <c r="CU15" t="inlineStr"/>
-      <c r="CV15" t="inlineStr"/>
-      <c r="CW15" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX15" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT15" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2dd67150-8a62-4507-b46f-d8cb4093a120</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="A16" t="n">
         <v>1404407</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
         <is>
           <t>0215751562055001</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>15601</v>
-      </c>
+        <v>5313</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>5313</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
         <v>1949098</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="O16" t="n">
         <v>22541</v>
       </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>1007000000904295</t>
+        </is>
+      </c>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>1007000000904295</t>
-        </is>
-      </c>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>2021-11-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>150</v>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>2021-11-23T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
@@ -3562,16 +3340,16 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AS16" t="n">
+        <v>41278.2</v>
+      </c>
       <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="n">
-        <v>41278.2</v>
-      </c>
-      <c r="AV16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
       <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
@@ -3580,45 +3358,45 @@
       <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
       <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>2024-06-15T18:41:01</t>
+        </is>
+      </c>
       <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="inlineStr">
-        <is>
-          <t>2024-06-15T18:41:01</t>
-        </is>
-      </c>
-      <c r="BS16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
       <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="inlineStr"/>
       <c r="BX16" t="inlineStr"/>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="inlineStr"/>
       <c r="CF16" t="inlineStr"/>
@@ -3628,118 +3406,104 @@
       <c r="CJ16" t="inlineStr"/>
       <c r="CK16" t="inlineStr"/>
       <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>2021-11-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr">
-        <is>
-          <t>2021-11-23T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO16" t="inlineStr"/>
       <c r="CP16" t="inlineStr"/>
       <c r="CQ16" t="inlineStr"/>
       <c r="CR16" t="inlineStr"/>
       <c r="CS16" t="inlineStr"/>
-      <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr"/>
-      <c r="CV16" t="inlineStr"/>
-      <c r="CW16" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX16" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT16" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>a594ff42-2c4c-4359-8eb4-9c113698b4cc</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="A17" t="n">
         <v>1425510</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
         <is>
           <t>0224151007045001</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>15601</v>
-      </c>
+        <v>5186</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>5186</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
         <v>1559410</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="O17" t="n">
         <v>22541</v>
       </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1007000000925226</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>1007000000925226</t>
-        </is>
-      </c>
+      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>150</v>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
@@ -3748,16 +3512,16 @@
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+      <c r="AS17" t="n">
+        <v>2500</v>
+      </c>
       <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AV17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
       <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
@@ -3766,41 +3530,41 @@
       <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
       <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
       <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
       <c r="BW17" t="inlineStr"/>
       <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB17" t="inlineStr"/>
-      <c r="CC17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr"/>
       <c r="CE17" t="inlineStr"/>
       <c r="CF17" t="inlineStr"/>
@@ -3810,118 +3574,104 @@
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>2020-12-02T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr">
-        <is>
-          <t>2020-12-02T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO17" t="inlineStr"/>
       <c r="CP17" t="inlineStr"/>
       <c r="CQ17" t="inlineStr"/>
       <c r="CR17" t="inlineStr"/>
       <c r="CS17" t="inlineStr"/>
-      <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr"/>
-      <c r="CV17" t="inlineStr"/>
-      <c r="CW17" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX17" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT17" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>50d658b0-b337-46b8-9732-d9b530a30537</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="A18" t="n">
         <v>1459463</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
         <is>
           <t>1315750545118001</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>15601</v>
-      </c>
+        <v>5295</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>5295</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
         <v>2032763</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="O18" t="n">
         <v>22541</v>
       </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>1007000000958858</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>1007000000958858</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>2019-09-30T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>150</v>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>2019-09-30T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
@@ -3930,16 +3680,16 @@
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
+      <c r="AS18" t="n">
+        <v>2500</v>
+      </c>
       <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AV18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
       <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
@@ -3948,41 +3698,41 @@
       <c r="BD18" t="inlineStr"/>
       <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
       <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr"/>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
       <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="inlineStr"/>
       <c r="BX18" t="inlineStr"/>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB18" t="inlineStr"/>
-      <c r="CC18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC18" t="inlineStr"/>
       <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="inlineStr"/>
       <c r="CF18" t="inlineStr"/>
@@ -3992,118 +3742,104 @@
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr">
+        <is>
+          <t>2019-09-30T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr">
-        <is>
-          <t>2019-09-30T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO18" t="inlineStr"/>
       <c r="CP18" t="inlineStr"/>
       <c r="CQ18" t="inlineStr"/>
       <c r="CR18" t="inlineStr"/>
       <c r="CS18" t="inlineStr"/>
-      <c r="CT18" t="inlineStr"/>
-      <c r="CU18" t="inlineStr"/>
-      <c r="CV18" t="inlineStr"/>
-      <c r="CW18" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX18" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT18" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>971cf3ed-59e2-4a3a-b03d-58a7c4f58c8c</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="A19" t="n">
         <v>1478359</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
         <is>
           <t>0095751731860001</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15601</v>
-      </c>
+        <v>5188</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>5188</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
         <v>2161658</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="O19" t="n">
         <v>22561</v>
       </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1007000000977538</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>1007000000977538</t>
-        </is>
-      </c>
+      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>2022-02-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>150</v>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>2022-02-19T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
@@ -4112,16 +3848,16 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AS19" t="n">
+        <v>32500</v>
+      </c>
       <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="n">
-        <v>32500</v>
-      </c>
-      <c r="AV19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
       <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
@@ -4130,45 +3866,45 @@
       <c r="BD19" t="inlineStr"/>
       <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
       <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>2023-03-29T17:45:34</t>
+        </is>
+      </c>
       <c r="BQ19" t="inlineStr"/>
-      <c r="BR19" t="inlineStr">
-        <is>
-          <t>2023-03-29T17:45:34</t>
-        </is>
-      </c>
-      <c r="BS19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
       <c r="BT19" t="inlineStr"/>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="inlineStr"/>
       <c r="BX19" t="inlineStr"/>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB19" t="inlineStr"/>
-      <c r="CC19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr"/>
       <c r="CE19" t="inlineStr"/>
       <c r="CF19" t="inlineStr"/>
@@ -4178,118 +3914,104 @@
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr">
+        <is>
+          <t>2022-02-19T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN19" t="inlineStr"/>
-      <c r="CO19" t="inlineStr">
-        <is>
-          <t>2022-02-19T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO19" t="inlineStr"/>
       <c r="CP19" t="inlineStr"/>
       <c r="CQ19" t="inlineStr"/>
       <c r="CR19" t="inlineStr"/>
       <c r="CS19" t="inlineStr"/>
-      <c r="CT19" t="inlineStr"/>
-      <c r="CU19" t="inlineStr"/>
-      <c r="CV19" t="inlineStr"/>
-      <c r="CW19" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX19" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT19" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>e5bae084-4c26-4927-adc5-067e953e0c5a</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="A20" t="n">
         <v>1678396</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
         <is>
           <t>2395751592493001</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>15601</v>
-      </c>
+        <v>5266</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>5266</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
         <v>1417237</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="O20" t="n">
         <v>22541</v>
       </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1007000001169598</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>1007000001169598</t>
-        </is>
-      </c>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>2021-12-09T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>150</v>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>2021-12-09T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
@@ -4298,16 +4020,16 @@
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
+      <c r="AS20" t="n">
+        <v>2500</v>
+      </c>
       <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AV20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
       <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
@@ -4316,41 +4038,41 @@
       <c r="BD20" t="inlineStr"/>
       <c r="BE20" t="inlineStr"/>
       <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
       <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
-      <c r="BS20" t="inlineStr"/>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
       <c r="BT20" t="inlineStr"/>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="inlineStr"/>
       <c r="BX20" t="inlineStr"/>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB20" t="inlineStr"/>
-      <c r="CC20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="inlineStr"/>
       <c r="CF20" t="inlineStr"/>
@@ -4360,118 +4082,104 @@
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="inlineStr"/>
       <c r="CL20" t="inlineStr"/>
-      <c r="CM20" t="inlineStr"/>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>2021-12-09T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN20" t="inlineStr"/>
-      <c r="CO20" t="inlineStr">
-        <is>
-          <t>2021-12-09T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO20" t="inlineStr"/>
       <c r="CP20" t="inlineStr"/>
       <c r="CQ20" t="inlineStr"/>
       <c r="CR20" t="inlineStr"/>
       <c r="CS20" t="inlineStr"/>
-      <c r="CT20" t="inlineStr"/>
-      <c r="CU20" t="inlineStr"/>
-      <c r="CV20" t="inlineStr"/>
-      <c r="CW20" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX20" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT20" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>b329d8f5-bd81-4898-849c-0ba1ebcf1b35</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="A21" t="n">
         <v>1729784</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
         <is>
           <t>0095751131729001</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>15601</v>
-      </c>
+        <v>5188</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>5188</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
         <v>1021824</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="O21" t="n">
         <v>22541</v>
       </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1007000001220986</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>1007000001220986</t>
-        </is>
-      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>2021-06-22T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>150</v>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>2021-06-22T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
@@ -4480,16 +4188,16 @@
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
+      <c r="AS21" t="n">
+        <v>5000</v>
+      </c>
       <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AV21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
       <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
@@ -4498,41 +4206,41 @@
       <c r="BD21" t="inlineStr"/>
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="inlineStr"/>
-      <c r="BG21" t="inlineStr"/>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
       <c r="BH21" t="inlineStr"/>
-      <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="inlineStr"/>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
       <c r="BT21" t="inlineStr"/>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="inlineStr"/>
       <c r="BX21" t="inlineStr"/>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB21" t="inlineStr"/>
-      <c r="CC21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr"/>
       <c r="CE21" t="inlineStr"/>
       <c r="CF21" t="inlineStr"/>
@@ -4542,118 +4250,104 @@
       <c r="CJ21" t="inlineStr"/>
       <c r="CK21" t="inlineStr"/>
       <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr"/>
+      <c r="CM21" t="inlineStr">
+        <is>
+          <t>2021-06-22T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN21" t="inlineStr"/>
-      <c r="CO21" t="inlineStr">
-        <is>
-          <t>2021-06-22T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO21" t="inlineStr"/>
       <c r="CP21" t="inlineStr"/>
       <c r="CQ21" t="inlineStr"/>
       <c r="CR21" t="inlineStr"/>
       <c r="CS21" t="inlineStr"/>
-      <c r="CT21" t="inlineStr"/>
-      <c r="CU21" t="inlineStr"/>
-      <c r="CV21" t="inlineStr"/>
-      <c r="CW21" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX21" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT21" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>906d0701-0a07-4adb-8a2f-3c3b340e19f0</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="A22" t="n">
         <v>1760653</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0905751516157001</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>15601</v>
-      </c>
+        <v>5468</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>5468</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
         <v>1303211</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="O22" t="n">
         <v>22541</v>
       </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1007000001251855</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>1007000001251855</t>
-        </is>
-      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>2021-10-21T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
         <v>150</v>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>2021-10-21T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
@@ -4662,16 +4356,16 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
+      <c r="AS22" t="n">
+        <v>2500</v>
+      </c>
       <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AV22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
       <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
@@ -4680,41 +4374,41 @@
       <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
-      <c r="BG22" t="inlineStr"/>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
       <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
-      <c r="BS22" t="inlineStr"/>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
       <c r="BT22" t="inlineStr"/>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
       <c r="BW22" t="inlineStr"/>
       <c r="BX22" t="inlineStr"/>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB22" t="inlineStr"/>
-      <c r="CC22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="inlineStr"/>
       <c r="CF22" t="inlineStr"/>
@@ -4724,118 +4418,104 @@
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr"/>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t>2021-10-21T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr">
-        <is>
-          <t>2021-10-21T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO22" t="inlineStr"/>
       <c r="CP22" t="inlineStr"/>
       <c r="CQ22" t="inlineStr"/>
       <c r="CR22" t="inlineStr"/>
       <c r="CS22" t="inlineStr"/>
-      <c r="CT22" t="inlineStr"/>
-      <c r="CU22" t="inlineStr"/>
-      <c r="CV22" t="inlineStr"/>
-      <c r="CW22" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX22" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT22" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>fbbb3b84-989c-4941-9123-1881a306a839</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="A23" t="n">
         <v>1847208</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
         <is>
           <t>0095752169468001</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>15601</v>
-      </c>
+        <v>5188</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>5188</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
         <v>2159451</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="O23" t="n">
         <v>22561</v>
       </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>1007000001338410</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>1007000001338410</t>
-        </is>
-      </c>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>2022-09-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
         <v>150</v>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>2022-09-19T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
@@ -4844,16 +4524,16 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+      <c r="AS23" t="n">
+        <v>10000</v>
+      </c>
       <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AV23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
       <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
@@ -4862,41 +4542,41 @@
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
       <c r="BH23" t="inlineStr"/>
-      <c r="BI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="inlineStr"/>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
       <c r="BT23" t="inlineStr"/>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="inlineStr"/>
       <c r="BX23" t="inlineStr"/>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB23" t="inlineStr"/>
-      <c r="CC23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="inlineStr"/>
       <c r="CF23" t="inlineStr"/>
@@ -4906,118 +4586,104 @@
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr"/>
+      <c r="CM23" t="inlineStr">
+        <is>
+          <t>2022-09-19T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr">
-        <is>
-          <t>2022-09-19T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO23" t="inlineStr"/>
       <c r="CP23" t="inlineStr"/>
       <c r="CQ23" t="inlineStr"/>
       <c r="CR23" t="inlineStr"/>
       <c r="CS23" t="inlineStr"/>
-      <c r="CT23" t="inlineStr"/>
-      <c r="CU23" t="inlineStr"/>
-      <c r="CV23" t="inlineStr"/>
-      <c r="CW23" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX23" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT23" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>6a7222ba-4f99-44f3-a1ff-5e4042f07425</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="A24" t="n">
         <v>1961143</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
         <is>
           <t>2987006151452401</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>15601</v>
-      </c>
+        <v>5236</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>5236</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
         <v>1071332</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="O24" t="n">
         <v>22541</v>
       </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>1007000001452345</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>1007000001452345</t>
-        </is>
-      </c>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>2021-07-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
         <v>150</v>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>2021-07-26T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
@@ -5026,16 +4692,16 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
+      <c r="AS24" t="n">
+        <v>86889.92</v>
+      </c>
       <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="n">
-        <v>86889.92</v>
-      </c>
-      <c r="AV24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
       <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
@@ -5044,45 +4710,45 @@
       <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="inlineStr"/>
-      <c r="BG24" t="inlineStr"/>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
       <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" t="inlineStr"/>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
-      <c r="BP24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>2024-06-13T18:06:12</t>
+        </is>
+      </c>
       <c r="BQ24" t="inlineStr"/>
-      <c r="BR24" t="inlineStr">
-        <is>
-          <t>2024-06-13T18:06:12</t>
-        </is>
-      </c>
-      <c r="BS24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
       <c r="BT24" t="inlineStr"/>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="inlineStr"/>
       <c r="BX24" t="inlineStr"/>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB24" t="inlineStr"/>
-      <c r="CC24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr"/>
       <c r="CE24" t="inlineStr"/>
       <c r="CF24" t="inlineStr"/>
@@ -5092,118 +4758,104 @@
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr"/>
+      <c r="CM24" t="inlineStr">
+        <is>
+          <t>2021-07-26T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr">
-        <is>
-          <t>2021-07-26T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO24" t="inlineStr"/>
       <c r="CP24" t="inlineStr"/>
       <c r="CQ24" t="inlineStr"/>
       <c r="CR24" t="inlineStr"/>
       <c r="CS24" t="inlineStr"/>
-      <c r="CT24" t="inlineStr"/>
-      <c r="CU24" t="inlineStr"/>
-      <c r="CV24" t="inlineStr"/>
-      <c r="CW24" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX24" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT24" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>78cc6868-a840-44c1-afff-f57b86bb62ef</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="A25" t="n">
         <v>2037346</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
         <is>
           <t>2495759558239001</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>15601</v>
-      </c>
+        <v>5328</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>5328</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
         <v>2364531</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="O25" t="n">
         <v>22541</v>
       </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>1007000001528548</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>1007000001528548</t>
-        </is>
-      </c>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>2019-09-29T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
         <v>150</v>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>2019-09-29T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
@@ -5212,16 +4864,16 @@
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AS25" t="n">
+        <v>13605.77</v>
+      </c>
       <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="n">
-        <v>13605.77</v>
-      </c>
-      <c r="AV25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
       <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
@@ -5230,45 +4882,45 @@
       <c r="BD25" t="inlineStr"/>
       <c r="BE25" t="inlineStr"/>
       <c r="BF25" t="inlineStr"/>
-      <c r="BG25" t="inlineStr"/>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
       <c r="BH25" t="inlineStr"/>
-      <c r="BI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ25" t="inlineStr"/>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
-      <c r="BP25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>2023-11-10T12:32:27</t>
+        </is>
+      </c>
       <c r="BQ25" t="inlineStr"/>
-      <c r="BR25" t="inlineStr">
-        <is>
-          <t>2023-11-10T12:32:27</t>
-        </is>
-      </c>
-      <c r="BS25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
       <c r="BT25" t="inlineStr"/>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="inlineStr"/>
       <c r="BW25" t="inlineStr"/>
       <c r="BX25" t="inlineStr"/>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
-      <c r="CA25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB25" t="inlineStr"/>
-      <c r="CC25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC25" t="inlineStr"/>
       <c r="CD25" t="inlineStr"/>
       <c r="CE25" t="inlineStr"/>
       <c r="CF25" t="inlineStr"/>
@@ -5278,118 +4930,104 @@
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="inlineStr"/>
       <c r="CL25" t="inlineStr"/>
-      <c r="CM25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr">
+        <is>
+          <t>2019-09-29T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN25" t="inlineStr"/>
-      <c r="CO25" t="inlineStr">
-        <is>
-          <t>2019-09-29T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO25" t="inlineStr"/>
       <c r="CP25" t="inlineStr"/>
       <c r="CQ25" t="inlineStr"/>
       <c r="CR25" t="inlineStr"/>
       <c r="CS25" t="inlineStr"/>
-      <c r="CT25" t="inlineStr"/>
-      <c r="CU25" t="inlineStr"/>
-      <c r="CV25" t="inlineStr"/>
-      <c r="CW25" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX25" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT25" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>969208f4-e8bf-42b5-96d9-0a6a4d48ec65</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="A26" t="n">
         <v>2233187</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
         <is>
           <t>3614283925524001</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>15601</v>
-      </c>
+        <v>5335</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>5335</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
         <v>868340</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="O26" t="n">
         <v>22541</v>
       </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1007000001724389</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>1007000001724389</t>
-        </is>
-      </c>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>2000-01-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
         <v>150</v>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>2000-01-01T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
@@ -5398,16 +5036,16 @@
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
+      <c r="AS26" t="n">
+        <v>2500</v>
+      </c>
       <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AV26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
       <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
@@ -5416,41 +5054,41 @@
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
       <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="inlineStr"/>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
       <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
-      <c r="BS26" t="inlineStr"/>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
       <c r="BT26" t="inlineStr"/>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU26" t="inlineStr"/>
       <c r="BV26" t="inlineStr"/>
       <c r="BW26" t="inlineStr"/>
       <c r="BX26" t="inlineStr"/>
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
-      <c r="CA26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB26" t="inlineStr"/>
-      <c r="CC26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="inlineStr"/>
       <c r="CF26" t="inlineStr"/>
@@ -5460,118 +5098,104 @@
       <c r="CJ26" t="inlineStr"/>
       <c r="CK26" t="inlineStr"/>
       <c r="CL26" t="inlineStr"/>
-      <c r="CM26" t="inlineStr"/>
+      <c r="CM26" t="inlineStr">
+        <is>
+          <t>2000-01-01T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr">
-        <is>
-          <t>2000-01-01T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO26" t="inlineStr"/>
       <c r="CP26" t="inlineStr"/>
       <c r="CQ26" t="inlineStr"/>
       <c r="CR26" t="inlineStr"/>
       <c r="CS26" t="inlineStr"/>
-      <c r="CT26" t="inlineStr"/>
-      <c r="CU26" t="inlineStr"/>
-      <c r="CV26" t="inlineStr"/>
-      <c r="CW26" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX26" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT26" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>9129af5b-c763-48b4-b0aa-c06796675d83</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="A27" t="n">
         <v>2316325</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
         <is>
           <t>2454151116404001</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>15601</v>
-      </c>
+        <v>5424</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>5424</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
         <v>911730</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="O27" t="n">
         <v>22541</v>
       </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>1007000001807527</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>1007000001807527</t>
-        </is>
-      </c>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>2021-02-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
         <v>150</v>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>2021-02-11T00:00:00.000000</t>
         </is>
       </c>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
@@ -5580,16 +5204,16 @@
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
+      <c r="AS27" t="n">
+        <v>5000</v>
+      </c>
       <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AV27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
       <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
@@ -5598,41 +5222,41 @@
       <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
       <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="inlineStr"/>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
       <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
-      <c r="BS27" t="inlineStr"/>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
       <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="n">
-        <v>0</v>
-      </c>
+      <c r="BU27" t="inlineStr"/>
       <c r="BV27" t="inlineStr"/>
       <c r="BW27" t="inlineStr"/>
       <c r="BX27" t="inlineStr"/>
       <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
-      <c r="CA27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB27" t="inlineStr"/>
-      <c r="CC27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC27" t="inlineStr"/>
       <c r="CD27" t="inlineStr"/>
       <c r="CE27" t="inlineStr"/>
       <c r="CF27" t="inlineStr"/>
@@ -5642,62 +5266,48 @@
       <c r="CJ27" t="inlineStr"/>
       <c r="CK27" t="inlineStr"/>
       <c r="CL27" t="inlineStr"/>
-      <c r="CM27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr">
+        <is>
+          <t>2021-02-11T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="CN27" t="inlineStr"/>
-      <c r="CO27" t="inlineStr">
-        <is>
-          <t>2021-02-11T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="CO27" t="inlineStr"/>
       <c r="CP27" t="inlineStr"/>
       <c r="CQ27" t="inlineStr"/>
       <c r="CR27" t="inlineStr"/>
       <c r="CS27" t="inlineStr"/>
-      <c r="CT27" t="inlineStr"/>
-      <c r="CU27" t="inlineStr"/>
-      <c r="CV27" t="inlineStr"/>
-      <c r="CW27" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX27" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT27" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>01ff30dc-9496-4fff-b415-ce2d44f16089</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="A28" t="n">
         <v>2415860</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
         <is>
           <t>2484150086423001</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -5705,41 +5315,41 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>2430281</v>
+      </c>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="n">
-        <v>2430281</v>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>M000000411321</t>
+        </is>
       </c>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>M000000411321</t>
-        </is>
-      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>2023-04-23T14:07:16</t>
+        </is>
+      </c>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr">
+      <c r="AG28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH28" t="inlineStr">
         <is>
           <t>2023-04-23T14:07:16</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>2023-04-23T14:07:16</t>
-        </is>
-      </c>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
@@ -5765,42 +5375,42 @@
       <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="inlineStr"/>
-      <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
-      <c r="BQ28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="BR28" t="inlineStr"/>
-      <c r="BS28" t="inlineStr">
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="inlineStr"/>
       <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW28" t="inlineStr"/>
       <c r="BX28" t="inlineStr"/>
       <c r="BY28" t="inlineStr"/>
       <c r="BZ28" t="inlineStr"/>
-      <c r="CA28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB28" t="inlineStr"/>
-      <c r="CC28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC28" t="inlineStr"/>
       <c r="CD28" t="inlineStr"/>
       <c r="CE28" t="inlineStr"/>
       <c r="CF28" t="inlineStr"/>
@@ -5817,113 +5427,99 @@
       <c r="CQ28" t="inlineStr"/>
       <c r="CR28" t="inlineStr"/>
       <c r="CS28" t="inlineStr"/>
-      <c r="CT28" t="inlineStr"/>
-      <c r="CU28" t="inlineStr"/>
-      <c r="CV28" t="inlineStr"/>
-      <c r="CW28" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX28" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT28" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7461346e-bad8-4382-94e3-43987f33208b</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="A29" t="n">
         <v>2438638</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
         <is>
           <t>2969977110524001</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>15601</v>
-      </c>
+        <v>5199</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>5199</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
         <v>2507599</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="O29" t="n">
         <v>22561</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0010070099I0002507599</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>0010070099I0002507599</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>2023-05-14T09:41:26</t>
+        </is>
       </c>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr">
+      <c r="AG29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH29" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>2023-05-14T09:41:26</t>
-        </is>
-      </c>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
@@ -5932,11 +5528,11 @@
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+      <c r="AS29" t="n">
+        <v>38890.45</v>
+      </c>
       <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="n">
-        <v>38890.45</v>
-      </c>
+      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
@@ -5951,46 +5547,46 @@
       <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="inlineStr"/>
       <c r="BI29" t="inlineStr"/>
-      <c r="BJ29" t="inlineStr"/>
-      <c r="BK29" t="inlineStr"/>
-      <c r="BL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
       <c r="BN29" t="inlineStr"/>
       <c r="BO29" t="inlineStr"/>
-      <c r="BP29" t="inlineStr"/>
-      <c r="BQ29" t="inlineStr"/>
-      <c r="BR29" t="inlineStr">
+      <c r="BP29" t="inlineStr">
         <is>
           <t>2024-03-26T14:48:18</t>
         </is>
       </c>
-      <c r="BS29" t="inlineStr">
+      <c r="BQ29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
       <c r="BT29" t="inlineStr"/>
-      <c r="BU29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="BV29" t="inlineStr"/>
-      <c r="BW29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW29" t="inlineStr"/>
       <c r="BX29" t="inlineStr"/>
       <c r="BY29" t="inlineStr"/>
       <c r="BZ29" t="inlineStr"/>
-      <c r="CA29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB29" t="inlineStr"/>
-      <c r="CC29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="inlineStr"/>
       <c r="CF29" t="inlineStr"/>
@@ -6007,51 +5603,37 @@
       <c r="CQ29" t="inlineStr"/>
       <c r="CR29" t="inlineStr"/>
       <c r="CS29" t="inlineStr"/>
-      <c r="CT29" t="inlineStr"/>
-      <c r="CU29" t="inlineStr"/>
-      <c r="CV29" t="inlineStr"/>
-      <c r="CW29" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX29" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT29" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>d2171633-eb00-404e-b0bc-4bb5f6ef24be</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="A30" t="n">
         <v>2452903</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
         <is>
           <t>2484150086423002</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -6059,41 +5641,41 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>2442741</v>
+      </c>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="n">
-        <v>2442741</v>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>M000000424981</t>
+        </is>
       </c>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>M000000424981</t>
-        </is>
-      </c>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>2023-05-22T13:50:13</t>
+        </is>
+      </c>
       <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr">
+      <c r="AG30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH30" t="inlineStr">
         <is>
           <t>2023-05-22T13:50:13</t>
         </is>
       </c>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>2023-05-22T13:50:13</t>
-        </is>
-      </c>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
@@ -6119,42 +5701,42 @@
       <c r="BG30" t="inlineStr"/>
       <c r="BH30" t="inlineStr"/>
       <c r="BI30" t="inlineStr"/>
-      <c r="BJ30" t="inlineStr"/>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr"/>
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
-      <c r="BQ30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="BR30" t="inlineStr"/>
-      <c r="BS30" t="inlineStr">
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BT30" t="inlineStr"/>
-      <c r="BU30" t="inlineStr"/>
       <c r="BV30" t="inlineStr"/>
-      <c r="BW30" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW30" t="inlineStr"/>
       <c r="BX30" t="inlineStr"/>
       <c r="BY30" t="inlineStr"/>
       <c r="BZ30" t="inlineStr"/>
-      <c r="CA30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB30" t="inlineStr"/>
-      <c r="CC30" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC30" t="inlineStr"/>
       <c r="CD30" t="inlineStr"/>
       <c r="CE30" t="inlineStr"/>
       <c r="CF30" t="inlineStr"/>
@@ -6171,51 +5753,37 @@
       <c r="CQ30" t="inlineStr"/>
       <c r="CR30" t="inlineStr"/>
       <c r="CS30" t="inlineStr"/>
-      <c r="CT30" t="inlineStr"/>
-      <c r="CU30" t="inlineStr"/>
-      <c r="CV30" t="inlineStr"/>
-      <c r="CW30" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX30" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT30" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>5420f95a-ae7b-492d-a54e-26ff35be4ce6</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C31" t="n">
+      <c r="A31" t="n">
         <v>2452904</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
         <is>
           <t>2484150086423003</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -6223,41 +5791,41 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>2442761</v>
+      </c>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="n">
-        <v>2442761</v>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>M000000425001</t>
+        </is>
       </c>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>M000000425001</t>
-        </is>
-      </c>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
       <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>2023-05-22T13:50:13</t>
+        </is>
+      </c>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr">
+      <c r="AG31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH31" t="inlineStr">
         <is>
           <t>2023-05-22T13:50:13</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>2023-05-22T13:50:13</t>
-        </is>
-      </c>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
@@ -6283,42 +5851,42 @@
       <c r="BG31" t="inlineStr"/>
       <c r="BH31" t="inlineStr"/>
       <c r="BI31" t="inlineStr"/>
-      <c r="BJ31" t="inlineStr"/>
-      <c r="BK31" t="inlineStr"/>
-      <c r="BL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr"/>
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
-      <c r="BQ31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="BR31" t="inlineStr"/>
-      <c r="BS31" t="inlineStr">
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BT31" t="inlineStr"/>
-      <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr"/>
-      <c r="BW31" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW31" t="inlineStr"/>
       <c r="BX31" t="inlineStr"/>
       <c r="BY31" t="inlineStr"/>
       <c r="BZ31" t="inlineStr"/>
-      <c r="CA31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB31" t="inlineStr"/>
-      <c r="CC31" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC31" t="inlineStr"/>
       <c r="CD31" t="inlineStr"/>
       <c r="CE31" t="inlineStr"/>
       <c r="CF31" t="inlineStr"/>
@@ -6335,111 +5903,97 @@
       <c r="CQ31" t="inlineStr"/>
       <c r="CR31" t="inlineStr"/>
       <c r="CS31" t="inlineStr"/>
-      <c r="CT31" t="inlineStr"/>
-      <c r="CU31" t="inlineStr"/>
-      <c r="CV31" t="inlineStr"/>
-      <c r="CW31" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX31" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT31" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>852bb12a-5553-4b94-a37d-5e6039fbe2f2</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="A32" t="n">
         <v>2555084</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
         <is>
           <t>1554483718524001</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>15601</v>
-      </c>
+        <v>5199</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>5199</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
         <v>2624525</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="O32" t="n">
         <v>22541</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>0010070099I0002624525</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>0010070099I0002624525</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>2023-08-20T10:31:10</t>
+        </is>
       </c>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr">
+      <c r="AG32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH32" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>2023-08-20T10:31:10</t>
-        </is>
-      </c>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
@@ -6448,11 +6002,11 @@
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
+      <c r="AS32" t="n">
+        <v>2350</v>
+      </c>
       <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="n">
-        <v>2350</v>
-      </c>
+      <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
@@ -6467,42 +6021,42 @@
       <c r="BG32" t="inlineStr"/>
       <c r="BH32" t="inlineStr"/>
       <c r="BI32" t="inlineStr"/>
-      <c r="BJ32" t="inlineStr"/>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL32" t="inlineStr"/>
+      <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr"/>
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
-      <c r="BQ32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="BR32" t="inlineStr"/>
-      <c r="BS32" t="inlineStr">
+      <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BT32" t="inlineStr"/>
-      <c r="BU32" t="inlineStr"/>
       <c r="BV32" t="inlineStr"/>
-      <c r="BW32" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW32" t="inlineStr"/>
       <c r="BX32" t="inlineStr"/>
       <c r="BY32" t="inlineStr"/>
       <c r="BZ32" t="inlineStr"/>
-      <c r="CA32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB32" t="inlineStr"/>
-      <c r="CC32" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC32" t="inlineStr"/>
       <c r="CD32" t="inlineStr"/>
       <c r="CE32" t="inlineStr"/>
       <c r="CF32" t="inlineStr"/>
@@ -6519,118 +6073,104 @@
       <c r="CQ32" t="inlineStr"/>
       <c r="CR32" t="inlineStr"/>
       <c r="CS32" t="inlineStr"/>
-      <c r="CT32" t="inlineStr"/>
-      <c r="CU32" t="inlineStr"/>
-      <c r="CV32" t="inlineStr"/>
-      <c r="CW32" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX32" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT32" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>c7a129fd-4c5d-41ae-bac6-2a431f1de3bf</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C33" t="n">
+      <c r="A33" t="n">
         <v>2620002</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
         <is>
           <t>3185752275983001</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>15601</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>15601</v>
-      </c>
+        <v>5485</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>5485</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="n">
         <v>2688564</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="O33" t="n">
         <v>22541</v>
       </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>7524000001881709</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>7524000001881709</t>
-        </is>
-      </c>
+      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>2023-11-03T14:40:23</t>
+        </is>
+      </c>
       <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr">
+      <c r="AG33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH33" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>2023-11-03T14:40:23</t>
-        </is>
-      </c>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>2023-11-03T14:40:23</t>
+        </is>
+      </c>
       <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>2023-11-03T14:40:23</t>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="n">
+        <v>2000</v>
+      </c>
       <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="n">
-        <v>2000</v>
-      </c>
+      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
@@ -6645,42 +6185,42 @@
       <c r="BG33" t="inlineStr"/>
       <c r="BH33" t="inlineStr"/>
       <c r="BI33" t="inlineStr"/>
-      <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" t="inlineStr"/>
       <c r="BN33" t="inlineStr"/>
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
-      <c r="BQ33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="BR33" t="inlineStr"/>
-      <c r="BS33" t="inlineStr">
+      <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BT33" t="inlineStr"/>
-      <c r="BU33" t="inlineStr"/>
       <c r="BV33" t="inlineStr"/>
-      <c r="BW33" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW33" t="inlineStr"/>
       <c r="BX33" t="inlineStr"/>
       <c r="BY33" t="inlineStr"/>
       <c r="BZ33" t="inlineStr"/>
-      <c r="CA33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CB33" t="inlineStr"/>
-      <c r="CC33" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC33" t="inlineStr"/>
       <c r="CD33" t="inlineStr"/>
       <c r="CE33" t="inlineStr"/>
       <c r="CF33" t="inlineStr"/>
@@ -6697,16 +6237,8 @@
       <c r="CQ33" t="inlineStr"/>
       <c r="CR33" t="inlineStr"/>
       <c r="CS33" t="inlineStr"/>
-      <c r="CT33" t="inlineStr"/>
-      <c r="CU33" t="inlineStr"/>
-      <c r="CV33" t="inlineStr"/>
-      <c r="CW33" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CX33" s="2" t="n">
-        <v>45511.29179264109</v>
+      <c r="CT33" s="2" t="n">
+        <v>45511.29179263889</v>
       </c>
     </row>
   </sheetData>

--- a/cards/account/account.xlsx
+++ b/cards/account/account.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT33"/>
+  <dimension ref="A1:CX33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,557 +440,583 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>acc_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>acc_iban</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>acc_numb</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>acc_type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acc_aas_code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>acc_apr_code</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acc_asr_code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>acc_ast_code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>acc_aty_code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>acc_ban_code</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>acc_bat_code</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>acc_bra_code</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>acc_brea_age</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>acc_cus_code</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>acc_dpr_code</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>acc_gty_code</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>acc_gty_memo</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>acc_iaf_aply</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>acc_ilf_code</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>acc_mer_code</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>acc_mini_due</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>acc_numb_mxp</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>acc_ppr_code</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>acc_sar_code</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>acc_sfe_code</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>acc_vca_code</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>acc_auth_cumu</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>acc_auto_relo</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>acc_avai_amou</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>acc_clos_date</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>acc_crea_date</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>acc_cred_limi</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>acc_curr_code</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>acc_effe_date</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>acc_fixe_amou</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>acc_fore_avai</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>acc_guar_valu</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>acc_levy_date</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>acc_paym_mode</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>acc_pend_amou</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_amou</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>acc_stat_date</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>acc_stat_fees</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>acc_unpa_stat</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>acc_used_cumu</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>acc_on_line_paym</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>acc_previous_ast</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>acc_due_bala_amou</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>acc_emi_pend_cumu</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>acc_gty_expi_date</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>acc_gty_refe_numb</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>acc_init_pmo_code</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_per_code</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_pmo_code</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_prf_code</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>acc_admi_stat_date</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>acc_admi_stat_reas</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>acc_auth_cumu_cash</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>acc_coun_unpa_term</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>acc_curr_open_bala</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>acc_dire_debi_mode</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>acc_dist_cred_limi</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>acc_dist_depo_amou</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>acc_fixe_peri_code</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>acc_init_load_amou</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>acc_init_tota_amou</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>acc_last_cycl_date</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>acc_last_tran_date</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>acc_late_paym_stat</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>acc_mana_user_code</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>acc_outs_bala_amou</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>acc_over_line_amou</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>acc_over_line_stat</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>acc_perc_over_limi</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>acc_proc_fixe_date</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_acco_numb</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>acc_unpa_stat_date</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>acc_used_cumu_test</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>acc_paper_stat_flag</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>acc_auto_paym_period</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>acc_merchant_ewallet</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_per_end_date</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>acc_inac_acco_fees_max</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>acc_inac_acco_fees_min</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>acc_inac_fee_proc_date</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>acc_last_cycl_due_bala</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>acc_misc_peri_fee_date</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_max_relo_valu</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_min_relo_valu</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_per_star_date</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>acc_cred_limi_effe_date</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>acc_inac_acco_fees_fixe</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>acc_inac_acco_fees_mont</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>acc_inac_acco_fees_rate</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>acc_late_paym_stat_date</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>acc_over_line_stat_date</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>acc_relo_max_limi_on_acco</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9e865e41-24d1-44e0-ac72-ecab8698d888</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="n">
         <v>652590</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>1054150036463002</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>5364</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
         <v>2294761</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
         <is>
           <t>M000002294761</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr">
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>2023-03-23T23:43:17</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="n">
         <v>150</v>
       </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -1053,93 +1079,107 @@
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="inlineStr"/>
-      <c r="CT2" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX2" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3a0e53ce-a936-4bee-acd8-ed9ded73cc3b</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="n">
         <v>685879</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2735750771966001</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>15601</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>5406</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
         <v>1189793</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>22541</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
         <is>
           <t>1007000000237151</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr">
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2020-03-12T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>150</v>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>2020-03-12T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -1148,16 +1188,16 @@
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="n">
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="n">
         <v>5000</v>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
@@ -1166,41 +1206,41 @@
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr">
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB3" t="inlineStr"/>
-      <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
@@ -1210,104 +1250,118 @@
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
       <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr">
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr">
         <is>
           <t>2020-03-12T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
       <c r="CP3" t="inlineStr"/>
       <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
       <c r="CS3" t="inlineStr"/>
-      <c r="CT3" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX3" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6e7ebecb-b7e5-492c-8583-608022cdab9e</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="n">
         <v>798551</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2385750960980001</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
         <v>15601</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>5419</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
         <v>1448846</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>22541</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1007000000348983</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr">
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2020-10-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>150</v>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>2020-10-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
@@ -1316,16 +1370,16 @@
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="n">
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="n">
         <v>2500</v>
       </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
@@ -1334,41 +1388,41 @@
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="inlineStr"/>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
-      <c r="CA4" t="inlineStr">
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr"/>
-      <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="inlineStr"/>
@@ -1378,104 +1432,118 @@
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr">
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr">
         <is>
           <t>2020-10-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr"/>
-      <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="inlineStr"/>
       <c r="CQ4" t="inlineStr"/>
       <c r="CR4" t="inlineStr"/>
       <c r="CS4" t="inlineStr"/>
-      <c r="CT4" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX4" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ea96a61f-569b-4de0-9841-178d831b23ad</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="n">
         <v>798601</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>0265751700535001</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>15601</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>5273</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
         <v>1550076</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>22541</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1007000000349032</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>2022-02-15T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>150</v>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>2022-02-15T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
@@ -1484,16 +1552,16 @@
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="n">
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="n">
         <v>5000</v>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
@@ -1502,41 +1570,41 @@
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="inlineStr"/>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr"/>
       <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr">
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB5" t="inlineStr"/>
-      <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr"/>
       <c r="CF5" t="inlineStr"/>
@@ -1546,104 +1614,118 @@
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr">
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr">
         <is>
           <t>2022-02-15T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN5" t="inlineStr"/>
-      <c r="CO5" t="inlineStr"/>
       <c r="CP5" t="inlineStr"/>
       <c r="CQ5" t="inlineStr"/>
       <c r="CR5" t="inlineStr"/>
       <c r="CS5" t="inlineStr"/>
-      <c r="CT5" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c2f9b2a5-0883-46e4-b17f-f72b13456713</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="n">
         <v>809273</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>0384151009724001</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>15601</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>5227</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
         <v>1431295</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>22541</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1007000000359413</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2020-12-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>150</v>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>2020-12-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
@@ -1652,16 +1734,16 @@
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="n">
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="n">
         <v>2500</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
@@ -1670,41 +1752,41 @@
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
       <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr">
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB6" t="inlineStr"/>
-      <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr"/>
@@ -1714,104 +1796,118 @@
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
-      <c r="CM6" t="inlineStr">
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr">
         <is>
           <t>2020-12-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
       <c r="CP6" t="inlineStr"/>
       <c r="CQ6" t="inlineStr"/>
       <c r="CR6" t="inlineStr"/>
       <c r="CS6" t="inlineStr"/>
-      <c r="CT6" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX6" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0511428b-fa09-478e-8970-84d3a293eae7</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="n">
         <v>873023</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>0265751651971001</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
         <v>15601</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>5273</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
         <v>1814727</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>22541</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
         <is>
           <t>1007000000422518</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2022-05-12T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>150</v>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>2022-05-12T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
@@ -1820,16 +1916,16 @@
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="n">
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="n">
         <v>10269.99</v>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
@@ -1838,45 +1934,45 @@
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr">
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
         <is>
           <t>2023-09-26T19:29:05</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr"/>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
       <c r="BX7" t="inlineStr"/>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr">
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB7" t="inlineStr"/>
-      <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="inlineStr"/>
@@ -1886,104 +1982,118 @@
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr">
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr">
         <is>
           <t>2022-05-12T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr"/>
       <c r="CP7" t="inlineStr"/>
       <c r="CQ7" t="inlineStr"/>
       <c r="CR7" t="inlineStr"/>
       <c r="CS7" t="inlineStr"/>
-      <c r="CT7" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX7" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>f81606ec-5b99-4cf9-a477-a0071035b135</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="n">
         <v>885145</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>4756430440524001</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
         <v>15601</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>5482</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
         <v>1447942</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>22541</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
         <is>
           <t>1007000000434539</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>150</v>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
@@ -1992,16 +2102,16 @@
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
@@ -2010,41 +2120,41 @@
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr">
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="inlineStr"/>
@@ -2054,104 +2164,118 @@
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr">
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
       <c r="CP8" t="inlineStr"/>
       <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr"/>
       <c r="CS8" t="inlineStr"/>
-      <c r="CT8" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9424e9e8-d047-4137-b6ee-ed42b553b115</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="n">
         <v>887451</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2655751566002001</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
         <v>15601</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>5387</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
         <v>1448270</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>22541</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
         <is>
           <t>1007000000436826</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>2021-12-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>150</v>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>2021-12-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
@@ -2160,16 +2284,16 @@
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="n">
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="n">
         <v>2500</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
@@ -2178,41 +2302,41 @@
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr">
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB9" t="inlineStr"/>
-      <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="inlineStr"/>
@@ -2222,104 +2346,118 @@
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr">
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr">
         <is>
           <t>2021-12-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
       <c r="CP9" t="inlineStr"/>
       <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr"/>
       <c r="CS9" t="inlineStr"/>
-      <c r="CT9" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX9" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c6e2017f-4c24-47ba-9cb5-b7dd74598445</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="n">
         <v>919185</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>5214291857524001</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>15601</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>5482</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
         <v>1251895</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>22541</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
         <is>
           <t>1007000000468280</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>2018-10-04T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>150</v>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>2018-10-04T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
@@ -2328,16 +2466,16 @@
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
@@ -2346,41 +2484,41 @@
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="inlineStr"/>
       <c r="BX10" t="inlineStr"/>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr">
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB10" t="inlineStr"/>
-      <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="inlineStr"/>
@@ -2390,104 +2528,118 @@
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr">
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr">
         <is>
           <t>2018-10-04T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
       <c r="CP10" t="inlineStr"/>
       <c r="CQ10" t="inlineStr"/>
       <c r="CR10" t="inlineStr"/>
       <c r="CS10" t="inlineStr"/>
-      <c r="CT10" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX10" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>95760d12-21ca-4749-b50a-5583a6cb4d13</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="n">
         <v>979625</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1554483718524001</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
         <v>15601</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>5482</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
         <v>1291988</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>22541</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1007000000528145</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>2018-07-29T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>150</v>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>2018-07-29T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
@@ -2496,16 +2648,16 @@
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
@@ -2514,41 +2666,41 @@
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
       <c r="BV11" t="inlineStr"/>
       <c r="BW11" t="inlineStr"/>
       <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr">
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="inlineStr"/>
@@ -2558,104 +2710,118 @@
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr">
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr">
         <is>
           <t>2018-07-29T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
       <c r="CP11" t="inlineStr"/>
       <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr"/>
       <c r="CS11" t="inlineStr"/>
-      <c r="CT11" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX11" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4d8efa96-8c02-4146-a00e-450fbf4a5b47</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="n">
         <v>1020535</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>R802018565452401</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
         <v>15601</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>5150</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
         <v>1789419</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>22541</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
         <is>
           <t>1007000000568687</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr">
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>2019-04-30T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>150</v>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>2019-04-30T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
@@ -2664,16 +2830,16 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="n">
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="n">
         <v>42500</v>
       </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
@@ -2682,45 +2848,45 @@
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr">
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
         <is>
           <t>2023-03-30T13:21:32</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr"/>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="inlineStr"/>
       <c r="BX12" t="inlineStr"/>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr">
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB12" t="inlineStr"/>
-      <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="inlineStr"/>
@@ -2730,104 +2896,118 @@
       <c r="CJ12" t="inlineStr"/>
       <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr">
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr">
         <is>
           <t>2019-04-30T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN12" t="inlineStr"/>
-      <c r="CO12" t="inlineStr"/>
       <c r="CP12" t="inlineStr"/>
       <c r="CQ12" t="inlineStr"/>
       <c r="CR12" t="inlineStr"/>
       <c r="CS12" t="inlineStr"/>
-      <c r="CT12" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX12" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3c8d581f-e0cf-44b0-89b8-c3fc0d58d11d</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C13" t="n">
         <v>1096165</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>4756430440524001</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>15601</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>5482</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="n">
         <v>1282439</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>22541</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
         <is>
           <t>1007000000643882</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr">
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>150</v>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
@@ -2836,16 +3016,16 @@
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
@@ -2854,41 +3034,41 @@
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
       <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="inlineStr"/>
       <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr">
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr"/>
       <c r="CF13" t="inlineStr"/>
@@ -2898,104 +3078,118 @@
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr">
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr">
         <is>
           <t>2016-07-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
       <c r="CP13" t="inlineStr"/>
       <c r="CQ13" t="inlineStr"/>
       <c r="CR13" t="inlineStr"/>
       <c r="CS13" t="inlineStr"/>
-      <c r="CT13" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX13" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c541f07e-3786-4d36-8264-431ce557eb1e</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C14" t="n">
         <v>1249841</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>3187974929752401</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>15601</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>5289</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="n">
         <v>1711130</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>22541</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1007000000795316</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr">
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>2020-01-22T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
         <v>150</v>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>2020-01-22T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
@@ -3004,16 +3198,16 @@
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="n">
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="n">
         <v>5000</v>
       </c>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
@@ -3022,41 +3216,41 @@
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr"/>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="inlineStr"/>
       <c r="BX14" t="inlineStr"/>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr">
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB14" t="inlineStr"/>
-      <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr"/>
       <c r="CF14" t="inlineStr"/>
@@ -3066,104 +3260,118 @@
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr">
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr">
         <is>
           <t>2020-01-22T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
       <c r="CR14" t="inlineStr"/>
       <c r="CS14" t="inlineStr"/>
-      <c r="CT14" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX14" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>634411a5-607d-491f-bc59-5a8cd88dae86</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C15" t="n">
         <v>1320952</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>0224151007045001</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
         <v>15601</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>5186</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="n">
         <v>1559410</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>22541</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
         <is>
           <t>1007000000855692</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr">
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>150</v>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
@@ -3172,16 +3380,16 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
@@ -3190,41 +3398,41 @@
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="inlineStr"/>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="inlineStr"/>
       <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr">
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB15" t="inlineStr"/>
-      <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
       <c r="CF15" t="inlineStr"/>
@@ -3234,104 +3442,118 @@
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr">
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
       <c r="CP15" t="inlineStr"/>
       <c r="CQ15" t="inlineStr"/>
       <c r="CR15" t="inlineStr"/>
       <c r="CS15" t="inlineStr"/>
-      <c r="CT15" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX15" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2dd67150-8a62-4507-b46f-d8cb4093a120</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C16" t="n">
         <v>1404407</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>0215751562055001</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
         <v>15601</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>5313</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
         <v>1949098</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>22541</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
         <is>
           <t>1007000000904295</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr">
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2021-11-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
         <v>150</v>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>2021-11-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
@@ -3340,16 +3562,16 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="n">
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="n">
         <v>41278.2</v>
       </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
@@ -3358,45 +3580,45 @@
       <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr">
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
         <is>
           <t>2024-06-15T18:41:01</t>
         </is>
       </c>
-      <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="inlineStr"/>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
       <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="inlineStr"/>
       <c r="BX16" t="inlineStr"/>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr">
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB16" t="inlineStr"/>
-      <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="inlineStr"/>
       <c r="CF16" t="inlineStr"/>
@@ -3406,104 +3628,118 @@
       <c r="CJ16" t="inlineStr"/>
       <c r="CK16" t="inlineStr"/>
       <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr">
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr">
         <is>
           <t>2021-11-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
       <c r="CP16" t="inlineStr"/>
       <c r="CQ16" t="inlineStr"/>
       <c r="CR16" t="inlineStr"/>
       <c r="CS16" t="inlineStr"/>
-      <c r="CT16" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX16" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>a594ff42-2c4c-4359-8eb4-9c113698b4cc</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C17" t="n">
         <v>1425510</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>0224151007045001</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
         <v>15601</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>5186</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="n">
         <v>1559410</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>22541</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1007000000925226</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr">
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>150</v>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
@@ -3512,16 +3748,16 @@
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="n">
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="n">
         <v>2500</v>
       </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
@@ -3530,41 +3766,41 @@
       <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="inlineStr"/>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
       <c r="BV17" t="inlineStr"/>
       <c r="BW17" t="inlineStr"/>
       <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr">
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB17" t="inlineStr"/>
-      <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr"/>
       <c r="CE17" t="inlineStr"/>
       <c r="CF17" t="inlineStr"/>
@@ -3574,104 +3810,118 @@
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr">
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr">
         <is>
           <t>2020-12-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
       <c r="CP17" t="inlineStr"/>
       <c r="CQ17" t="inlineStr"/>
       <c r="CR17" t="inlineStr"/>
       <c r="CS17" t="inlineStr"/>
-      <c r="CT17" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX17" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>50d658b0-b337-46b8-9732-d9b530a30537</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C18" t="n">
         <v>1459463</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1315750545118001</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
         <v>15601</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>5295</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="n">
         <v>2032763</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>22541</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
         <is>
           <t>1007000000958858</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr">
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr">
         <is>
           <t>2019-09-30T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>150</v>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>2019-09-30T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
@@ -3680,16 +3930,16 @@
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="n">
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="n">
         <v>2500</v>
       </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
@@ -3698,41 +3948,41 @@
       <c r="BD18" t="inlineStr"/>
       <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="inlineStr"/>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="inlineStr"/>
       <c r="BX18" t="inlineStr"/>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr">
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB18" t="inlineStr"/>
-      <c r="CC18" t="inlineStr"/>
       <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="inlineStr"/>
       <c r="CF18" t="inlineStr"/>
@@ -3742,104 +3992,118 @@
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr">
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr">
         <is>
           <t>2019-09-30T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr"/>
       <c r="CP18" t="inlineStr"/>
       <c r="CQ18" t="inlineStr"/>
       <c r="CR18" t="inlineStr"/>
       <c r="CS18" t="inlineStr"/>
-      <c r="CT18" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX18" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>971cf3ed-59e2-4a3a-b03d-58a7c4f58c8c</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C19" t="n">
         <v>1478359</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>0095751731860001</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
         <v>15601</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>5188</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="n">
         <v>2161658</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>22561</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
         <is>
           <t>1007000000977538</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr">
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr">
         <is>
           <t>2022-02-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>150</v>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>2022-02-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
@@ -3848,16 +4112,16 @@
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="n">
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="n">
         <v>32500</v>
       </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
@@ -3866,45 +4130,45 @@
       <c r="BD19" t="inlineStr"/>
       <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr">
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
         <is>
           <t>2023-03-29T17:45:34</t>
         </is>
       </c>
-      <c r="BQ19" t="inlineStr"/>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="inlineStr"/>
-      <c r="BU19" t="inlineStr"/>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="inlineStr"/>
       <c r="BX19" t="inlineStr"/>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr">
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB19" t="inlineStr"/>
-      <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr"/>
       <c r="CE19" t="inlineStr"/>
       <c r="CF19" t="inlineStr"/>
@@ -3914,104 +4178,118 @@
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr">
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr">
         <is>
           <t>2022-02-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN19" t="inlineStr"/>
-      <c r="CO19" t="inlineStr"/>
       <c r="CP19" t="inlineStr"/>
       <c r="CQ19" t="inlineStr"/>
       <c r="CR19" t="inlineStr"/>
       <c r="CS19" t="inlineStr"/>
-      <c r="CT19" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX19" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>e5bae084-4c26-4927-adc5-067e953e0c5a</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C20" t="n">
         <v>1678396</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2395751592493001</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
         <v>15601</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>5266</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="n">
         <v>1417237</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>22541</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
         <is>
           <t>1007000001169598</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr">
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr">
         <is>
           <t>2021-12-09T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
         <v>150</v>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>2021-12-09T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
@@ -4020,16 +4298,16 @@
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="n">
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="n">
         <v>2500</v>
       </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
@@ -4038,41 +4316,41 @@
       <c r="BD20" t="inlineStr"/>
       <c r="BE20" t="inlineStr"/>
       <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
-      <c r="BU20" t="inlineStr"/>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="inlineStr"/>
       <c r="BX20" t="inlineStr"/>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="inlineStr">
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB20" t="inlineStr"/>
-      <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="inlineStr"/>
       <c r="CF20" t="inlineStr"/>
@@ -4082,104 +4360,118 @@
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="inlineStr"/>
       <c r="CL20" t="inlineStr"/>
-      <c r="CM20" t="inlineStr">
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr">
         <is>
           <t>2021-12-09T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN20" t="inlineStr"/>
-      <c r="CO20" t="inlineStr"/>
       <c r="CP20" t="inlineStr"/>
       <c r="CQ20" t="inlineStr"/>
       <c r="CR20" t="inlineStr"/>
       <c r="CS20" t="inlineStr"/>
-      <c r="CT20" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
+      <c r="CW20" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX20" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>b329d8f5-bd81-4898-849c-0ba1ebcf1b35</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C21" t="n">
         <v>1729784</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>0095751131729001</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
         <v>15601</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>5188</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="n">
         <v>1021824</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>22541</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
         <is>
           <t>1007000001220986</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr">
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr">
         <is>
           <t>2021-06-22T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>150</v>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>2021-06-22T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
@@ -4188,16 +4480,16 @@
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="n">
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="n">
         <v>5000</v>
       </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
@@ -4206,41 +4498,41 @@
       <c r="BD21" t="inlineStr"/>
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="inlineStr"/>
-      <c r="BG21" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
-      <c r="BI21" t="inlineStr"/>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
-      <c r="BU21" t="inlineStr"/>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="inlineStr"/>
       <c r="BX21" t="inlineStr"/>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr">
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB21" t="inlineStr"/>
-      <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr"/>
       <c r="CE21" t="inlineStr"/>
       <c r="CF21" t="inlineStr"/>
@@ -4250,104 +4542,118 @@
       <c r="CJ21" t="inlineStr"/>
       <c r="CK21" t="inlineStr"/>
       <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr">
+      <c r="CM21" t="inlineStr"/>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr">
         <is>
           <t>2021-06-22T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN21" t="inlineStr"/>
-      <c r="CO21" t="inlineStr"/>
       <c r="CP21" t="inlineStr"/>
       <c r="CQ21" t="inlineStr"/>
       <c r="CR21" t="inlineStr"/>
       <c r="CS21" t="inlineStr"/>
-      <c r="CT21" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
+      <c r="CW21" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX21" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>906d0701-0a07-4adb-8a2f-3c3b340e19f0</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C22" t="n">
         <v>1760653</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>0905751516157001</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
         <v>15601</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>5468</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
         <v>1303211</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>22541</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
         <is>
           <t>1007000001251855</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr">
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr">
         <is>
           <t>2021-10-21T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
         <v>150</v>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>2021-10-21T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
@@ -4356,16 +4662,16 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="n">
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="n">
         <v>2500</v>
       </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
@@ -4374,41 +4680,41 @@
       <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
-      <c r="BG22" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
-      <c r="BU22" t="inlineStr"/>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
       <c r="BV22" t="inlineStr"/>
       <c r="BW22" t="inlineStr"/>
       <c r="BX22" t="inlineStr"/>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr">
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB22" t="inlineStr"/>
-      <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="inlineStr"/>
       <c r="CF22" t="inlineStr"/>
@@ -4418,104 +4724,118 @@
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr">
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr">
         <is>
           <t>2021-10-21T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr"/>
       <c r="CP22" t="inlineStr"/>
       <c r="CQ22" t="inlineStr"/>
       <c r="CR22" t="inlineStr"/>
       <c r="CS22" t="inlineStr"/>
-      <c r="CT22" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr"/>
+      <c r="CW22" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX22" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fbbb3b84-989c-4941-9123-1881a306a839</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C23" t="n">
         <v>1847208</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>0095752169468001</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>15601</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>5188</v>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
         <v>2159451</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>22561</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
         <is>
           <t>1007000001338410</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr">
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr">
         <is>
           <t>2022-09-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>150</v>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>2022-09-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
@@ -4524,16 +4844,16 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="n">
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="n">
         <v>10000</v>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
@@ -4542,41 +4862,41 @@
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="inlineStr"/>
-      <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS23" t="inlineStr"/>
       <c r="BT23" t="inlineStr"/>
-      <c r="BU23" t="inlineStr"/>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="inlineStr"/>
       <c r="BX23" t="inlineStr"/>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr">
+      <c r="CA23" t="inlineStr"/>
+      <c r="CB23" t="inlineStr"/>
+      <c r="CC23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB23" t="inlineStr"/>
-      <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="inlineStr"/>
       <c r="CF23" t="inlineStr"/>
@@ -4586,104 +4906,118 @@
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr">
+      <c r="CM23" t="inlineStr"/>
+      <c r="CN23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr">
         <is>
           <t>2022-09-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr"/>
       <c r="CP23" t="inlineStr"/>
       <c r="CQ23" t="inlineStr"/>
       <c r="CR23" t="inlineStr"/>
       <c r="CS23" t="inlineStr"/>
-      <c r="CT23" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr"/>
+      <c r="CW23" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX23" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>6a7222ba-4f99-44f3-a1ff-5e4042f07425</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C24" t="n">
         <v>1961143</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2987006151452401</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
         <v>15601</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>5236</v>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="n">
         <v>1071332</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>22541</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
         <is>
           <t>1007000001452345</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr">
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
         <is>
           <t>2021-07-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
         <v>150</v>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>2021-07-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
@@ -4692,16 +5026,16 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="n">
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="n">
         <v>86889.92</v>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
@@ -4710,45 +5044,45 @@
       <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="inlineStr"/>
-      <c r="BG24" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="inlineStr"/>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
-      <c r="BP24" t="inlineStr">
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
         <is>
           <t>2024-06-13T18:06:12</t>
         </is>
       </c>
-      <c r="BQ24" t="inlineStr"/>
-      <c r="BR24" t="inlineStr"/>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
-      <c r="BU24" t="inlineStr"/>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="inlineStr"/>
       <c r="BX24" t="inlineStr"/>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="inlineStr">
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
+      <c r="CC24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB24" t="inlineStr"/>
-      <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr"/>
       <c r="CE24" t="inlineStr"/>
       <c r="CF24" t="inlineStr"/>
@@ -4758,104 +5092,118 @@
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr">
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr">
         <is>
           <t>2021-07-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr"/>
       <c r="CP24" t="inlineStr"/>
       <c r="CQ24" t="inlineStr"/>
       <c r="CR24" t="inlineStr"/>
       <c r="CS24" t="inlineStr"/>
-      <c r="CT24" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr"/>
+      <c r="CW24" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX24" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>78cc6868-a840-44c1-afff-f57b86bb62ef</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C25" t="n">
         <v>2037346</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2495759558239001</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
         <v>15601</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>5328</v>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="n">
         <v>2364531</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>22541</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
         <is>
           <t>1007000001528548</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr">
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr">
         <is>
           <t>2019-09-29T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
         <v>150</v>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>2019-09-29T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
@@ -4864,16 +5212,16 @@
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="n">
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="n">
         <v>13605.77</v>
       </c>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
@@ -4882,45 +5230,45 @@
       <c r="BD25" t="inlineStr"/>
       <c r="BE25" t="inlineStr"/>
       <c r="BF25" t="inlineStr"/>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG25" t="inlineStr"/>
       <c r="BH25" t="inlineStr"/>
-      <c r="BI25" t="inlineStr"/>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
-      <c r="BP25" t="inlineStr">
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
         <is>
           <t>2023-11-10T12:32:27</t>
         </is>
       </c>
-      <c r="BQ25" t="inlineStr"/>
-      <c r="BR25" t="inlineStr"/>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS25" t="inlineStr"/>
       <c r="BT25" t="inlineStr"/>
-      <c r="BU25" t="inlineStr"/>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
       <c r="BV25" t="inlineStr"/>
       <c r="BW25" t="inlineStr"/>
       <c r="BX25" t="inlineStr"/>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
-      <c r="CA25" t="inlineStr">
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB25" t="inlineStr"/>
-      <c r="CC25" t="inlineStr"/>
       <c r="CD25" t="inlineStr"/>
       <c r="CE25" t="inlineStr"/>
       <c r="CF25" t="inlineStr"/>
@@ -4930,104 +5278,118 @@
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="inlineStr"/>
       <c r="CL25" t="inlineStr"/>
-      <c r="CM25" t="inlineStr">
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr">
         <is>
           <t>2019-09-29T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN25" t="inlineStr"/>
-      <c r="CO25" t="inlineStr"/>
       <c r="CP25" t="inlineStr"/>
       <c r="CQ25" t="inlineStr"/>
       <c r="CR25" t="inlineStr"/>
       <c r="CS25" t="inlineStr"/>
-      <c r="CT25" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
+      <c r="CW25" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX25" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>969208f4-e8bf-42b5-96d9-0a6a4d48ec65</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C26" t="n">
         <v>2233187</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>3614283925524001</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
         <v>15601</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>5335</v>
       </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="n">
         <v>868340</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>22541</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
         <is>
           <t>1007000001724389</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr">
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr">
         <is>
           <t>2000-01-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
         <v>150</v>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>2000-01-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
@@ -5036,16 +5398,16 @@
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="n">
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="n">
         <v>2500</v>
       </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
@@ -5054,41 +5416,41 @@
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
       <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="inlineStr"/>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0</v>
+      </c>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr"/>
-      <c r="BU26" t="inlineStr"/>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
       <c r="BV26" t="inlineStr"/>
       <c r="BW26" t="inlineStr"/>
       <c r="BX26" t="inlineStr"/>
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
-      <c r="CA26" t="inlineStr">
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
+      <c r="CC26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB26" t="inlineStr"/>
-      <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="inlineStr"/>
       <c r="CF26" t="inlineStr"/>
@@ -5098,104 +5460,118 @@
       <c r="CJ26" t="inlineStr"/>
       <c r="CK26" t="inlineStr"/>
       <c r="CL26" t="inlineStr"/>
-      <c r="CM26" t="inlineStr">
+      <c r="CM26" t="inlineStr"/>
+      <c r="CN26" t="inlineStr"/>
+      <c r="CO26" t="inlineStr">
         <is>
           <t>2000-01-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr"/>
       <c r="CP26" t="inlineStr"/>
       <c r="CQ26" t="inlineStr"/>
       <c r="CR26" t="inlineStr"/>
       <c r="CS26" t="inlineStr"/>
-      <c r="CT26" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr"/>
+      <c r="CW26" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX26" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>9129af5b-c763-48b4-b0aa-c06796675d83</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C27" t="n">
         <v>2316325</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2454151116404001</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
         <v>15601</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>5424</v>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="n">
         <v>911730</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>22541</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
         <is>
           <t>1007000001807527</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr">
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr">
         <is>
           <t>2021-02-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
         <v>150</v>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>2021-02-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
@@ -5204,16 +5580,16 @@
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="n">
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="n">
         <v>5000</v>
       </c>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
@@ -5222,41 +5598,41 @@
       <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
       <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
-      <c r="BS27" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="inlineStr"/>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
       <c r="BV27" t="inlineStr"/>
       <c r="BW27" t="inlineStr"/>
       <c r="BX27" t="inlineStr"/>
       <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
-      <c r="CA27" t="inlineStr">
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB27" t="inlineStr"/>
-      <c r="CC27" t="inlineStr"/>
       <c r="CD27" t="inlineStr"/>
       <c r="CE27" t="inlineStr"/>
       <c r="CF27" t="inlineStr"/>
@@ -5266,48 +5642,62 @@
       <c r="CJ27" t="inlineStr"/>
       <c r="CK27" t="inlineStr"/>
       <c r="CL27" t="inlineStr"/>
-      <c r="CM27" t="inlineStr">
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr">
         <is>
           <t>2021-02-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="CN27" t="inlineStr"/>
-      <c r="CO27" t="inlineStr"/>
       <c r="CP27" t="inlineStr"/>
       <c r="CQ27" t="inlineStr"/>
       <c r="CR27" t="inlineStr"/>
       <c r="CS27" t="inlineStr"/>
-      <c r="CT27" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr"/>
+      <c r="CW27" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX27" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>01ff30dc-9496-4fff-b415-ce2d44f16089</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C28" t="n">
         <v>2415860</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2484150086423001</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -5315,41 +5705,41 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="n">
         <v>2430281</v>
       </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
         <is>
           <t>M000000411321</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr">
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr">
         <is>
           <t>2023-04-23T14:07:16</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="n">
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="n">
         <v>150</v>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>2023-04-23T14:07:16</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
@@ -5375,42 +5765,42 @@
       <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="inlineStr"/>
-      <c r="BJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0</v>
+      </c>
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
-      <c r="BQ28" t="inlineStr">
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BR28" t="inlineStr"/>
-      <c r="BS28" t="inlineStr"/>
       <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="inlineStr">
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="inlineStr"/>
       <c r="BX28" t="inlineStr"/>
       <c r="BY28" t="inlineStr"/>
       <c r="BZ28" t="inlineStr"/>
-      <c r="CA28" t="inlineStr">
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB28" t="inlineStr"/>
-      <c r="CC28" t="inlineStr"/>
       <c r="CD28" t="inlineStr"/>
       <c r="CE28" t="inlineStr"/>
       <c r="CF28" t="inlineStr"/>
@@ -5427,99 +5817,113 @@
       <c r="CQ28" t="inlineStr"/>
       <c r="CR28" t="inlineStr"/>
       <c r="CS28" t="inlineStr"/>
-      <c r="CT28" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr"/>
+      <c r="CW28" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX28" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7461346e-bad8-4382-94e3-43987f33208b</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C29" t="n">
         <v>2438638</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2969977110524001</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
         <v>15601</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>5199</v>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="n">
         <v>2507599</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>22561</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
         <is>
           <t>0010070099I0002507599</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="inlineStr">
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr">
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="n">
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="n">
         <v>150</v>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
@@ -5528,11 +5932,11 @@
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="n">
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="n">
         <v>38890.45</v>
       </c>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
@@ -5547,46 +5951,46 @@
       <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="inlineStr"/>
       <c r="BI29" t="inlineStr"/>
-      <c r="BJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL29" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0</v>
+      </c>
       <c r="BN29" t="inlineStr"/>
       <c r="BO29" t="inlineStr"/>
-      <c r="BP29" t="inlineStr">
+      <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
         <is>
           <t>2024-03-26T14:48:18</t>
         </is>
       </c>
-      <c r="BQ29" t="inlineStr">
+      <c r="BS29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BR29" t="inlineStr"/>
-      <c r="BS29" t="inlineStr"/>
       <c r="BT29" t="inlineStr"/>
-      <c r="BU29" t="inlineStr">
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV29" t="inlineStr"/>
-      <c r="BW29" t="inlineStr"/>
       <c r="BX29" t="inlineStr"/>
       <c r="BY29" t="inlineStr"/>
       <c r="BZ29" t="inlineStr"/>
-      <c r="CA29" t="inlineStr">
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr"/>
+      <c r="CC29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB29" t="inlineStr"/>
-      <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="inlineStr"/>
       <c r="CF29" t="inlineStr"/>
@@ -5603,37 +6007,51 @@
       <c r="CQ29" t="inlineStr"/>
       <c r="CR29" t="inlineStr"/>
       <c r="CS29" t="inlineStr"/>
-      <c r="CT29" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr"/>
+      <c r="CW29" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX29" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>d2171633-eb00-404e-b0bc-4bb5f6ef24be</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C30" t="n">
         <v>2452903</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2484150086423002</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -5641,41 +6059,41 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="n">
         <v>2442741</v>
       </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
         <is>
           <t>M000000424981</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr">
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr">
         <is>
           <t>2023-05-22T13:50:13</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="n">
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="n">
         <v>150</v>
       </c>
-      <c r="AH30" t="inlineStr">
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>2023-05-22T13:50:13</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
@@ -5701,42 +6119,42 @@
       <c r="BG30" t="inlineStr"/>
       <c r="BH30" t="inlineStr"/>
       <c r="BI30" t="inlineStr"/>
-      <c r="BJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL30" t="inlineStr"/>
-      <c r="BM30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0</v>
+      </c>
       <c r="BN30" t="inlineStr"/>
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
-      <c r="BQ30" t="inlineStr">
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BR30" t="inlineStr"/>
-      <c r="BS30" t="inlineStr"/>
       <c r="BT30" t="inlineStr"/>
-      <c r="BU30" t="inlineStr">
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV30" t="inlineStr"/>
-      <c r="BW30" t="inlineStr"/>
       <c r="BX30" t="inlineStr"/>
       <c r="BY30" t="inlineStr"/>
       <c r="BZ30" t="inlineStr"/>
-      <c r="CA30" t="inlineStr">
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB30" t="inlineStr"/>
-      <c r="CC30" t="inlineStr"/>
       <c r="CD30" t="inlineStr"/>
       <c r="CE30" t="inlineStr"/>
       <c r="CF30" t="inlineStr"/>
@@ -5753,37 +6171,51 @@
       <c r="CQ30" t="inlineStr"/>
       <c r="CR30" t="inlineStr"/>
       <c r="CS30" t="inlineStr"/>
-      <c r="CT30" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX30" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>5420f95a-ae7b-492d-a54e-26ff35be4ce6</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C31" t="n">
         <v>2452904</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2484150086423003</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>MERCHANT</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -5791,41 +6223,41 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="n">
         <v>2442761</v>
       </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
         <is>
           <t>M000000425001</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr">
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr">
         <is>
           <t>2023-05-22T13:50:13</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="n">
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="n">
         <v>150</v>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AJ31" t="inlineStr">
         <is>
           <t>2023-05-22T13:50:13</t>
         </is>
       </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
@@ -5851,42 +6283,42 @@
       <c r="BG31" t="inlineStr"/>
       <c r="BH31" t="inlineStr"/>
       <c r="BI31" t="inlineStr"/>
-      <c r="BJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL31" t="inlineStr"/>
-      <c r="BM31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>0</v>
+      </c>
       <c r="BN31" t="inlineStr"/>
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
-      <c r="BQ31" t="inlineStr">
+      <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BR31" t="inlineStr"/>
-      <c r="BS31" t="inlineStr"/>
       <c r="BT31" t="inlineStr"/>
-      <c r="BU31" t="inlineStr">
+      <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV31" t="inlineStr"/>
-      <c r="BW31" t="inlineStr"/>
       <c r="BX31" t="inlineStr"/>
       <c r="BY31" t="inlineStr"/>
       <c r="BZ31" t="inlineStr"/>
-      <c r="CA31" t="inlineStr">
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
+      <c r="CC31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB31" t="inlineStr"/>
-      <c r="CC31" t="inlineStr"/>
       <c r="CD31" t="inlineStr"/>
       <c r="CE31" t="inlineStr"/>
       <c r="CF31" t="inlineStr"/>
@@ -5903,97 +6335,111 @@
       <c r="CQ31" t="inlineStr"/>
       <c r="CR31" t="inlineStr"/>
       <c r="CS31" t="inlineStr"/>
-      <c r="CT31" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr"/>
+      <c r="CW31" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX31" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>852bb12a-5553-4b94-a37d-5e6039fbe2f2</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C32" t="n">
         <v>2555084</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>1554483718524001</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
         <v>15601</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>5199</v>
       </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="n">
         <v>2624525</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>22541</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
         <is>
           <t>0010070099I0002624525</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr">
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr">
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="n">
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="n">
         <v>150</v>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
@@ -6002,11 +6448,11 @@
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="n">
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="n">
         <v>2350</v>
       </c>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
@@ -6021,42 +6467,42 @@
       <c r="BG32" t="inlineStr"/>
       <c r="BH32" t="inlineStr"/>
       <c r="BI32" t="inlineStr"/>
-      <c r="BJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL32" t="inlineStr"/>
-      <c r="BM32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>0</v>
+      </c>
       <c r="BN32" t="inlineStr"/>
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
-      <c r="BQ32" t="inlineStr">
+      <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BR32" t="inlineStr"/>
-      <c r="BS32" t="inlineStr"/>
       <c r="BT32" t="inlineStr"/>
-      <c r="BU32" t="inlineStr">
+      <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV32" t="inlineStr"/>
-      <c r="BW32" t="inlineStr"/>
       <c r="BX32" t="inlineStr"/>
       <c r="BY32" t="inlineStr"/>
       <c r="BZ32" t="inlineStr"/>
-      <c r="CA32" t="inlineStr">
+      <c r="CA32" t="inlineStr"/>
+      <c r="CB32" t="inlineStr"/>
+      <c r="CC32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB32" t="inlineStr"/>
-      <c r="CC32" t="inlineStr"/>
       <c r="CD32" t="inlineStr"/>
       <c r="CE32" t="inlineStr"/>
       <c r="CF32" t="inlineStr"/>
@@ -6073,104 +6519,118 @@
       <c r="CQ32" t="inlineStr"/>
       <c r="CR32" t="inlineStr"/>
       <c r="CS32" t="inlineStr"/>
-      <c r="CT32" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT32" t="inlineStr"/>
+      <c r="CU32" t="inlineStr"/>
+      <c r="CV32" t="inlineStr"/>
+      <c r="CW32" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX32" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>c7a129fd-4c5d-41ae-bac6-2a431f1de3bf</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C33" t="n">
         <v>2620002</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>3185752275983001</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>CARDHOLDER</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
         <v>15601</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>5485</v>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="n">
         <v>2688564</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>22541</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
         <is>
           <t>7524000001881709</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr">
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="n">
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="n">
         <v>150</v>
       </c>
-      <c r="AH33" t="inlineStr">
+      <c r="AJ33" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr">
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="n">
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="n">
         <v>2000</v>
       </c>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
@@ -6185,42 +6645,42 @@
       <c r="BG33" t="inlineStr"/>
       <c r="BH33" t="inlineStr"/>
       <c r="BI33" t="inlineStr"/>
-      <c r="BJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL33" t="inlineStr"/>
-      <c r="BM33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0</v>
+      </c>
       <c r="BN33" t="inlineStr"/>
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
-      <c r="BQ33" t="inlineStr">
+      <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BR33" t="inlineStr"/>
-      <c r="BS33" t="inlineStr"/>
       <c r="BT33" t="inlineStr"/>
-      <c r="BU33" t="inlineStr">
+      <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV33" t="inlineStr"/>
-      <c r="BW33" t="inlineStr"/>
       <c r="BX33" t="inlineStr"/>
       <c r="BY33" t="inlineStr"/>
       <c r="BZ33" t="inlineStr"/>
-      <c r="CA33" t="inlineStr">
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
+      <c r="CC33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CB33" t="inlineStr"/>
-      <c r="CC33" t="inlineStr"/>
       <c r="CD33" t="inlineStr"/>
       <c r="CE33" t="inlineStr"/>
       <c r="CF33" t="inlineStr"/>
@@ -6237,8 +6697,16 @@
       <c r="CQ33" t="inlineStr"/>
       <c r="CR33" t="inlineStr"/>
       <c r="CS33" t="inlineStr"/>
-      <c r="CT33" s="2" t="n">
-        <v>45511.29179263889</v>
+      <c r="CT33" t="inlineStr"/>
+      <c r="CU33" t="inlineStr"/>
+      <c r="CV33" t="inlineStr"/>
+      <c r="CW33" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/ACCOUNT/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CX33" s="2" t="n">
+        <v>45511.29179264109</v>
       </c>
     </row>
   </sheetData>
